--- a/src/data/chart2_data.xlsx
+++ b/src/data/chart2_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\GitHub\industrial-america\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48969DA-732D-4933-8207-ECA03BB87E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A86F9EB-0C32-4F62-941A-0E9D233DEC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9AE76EC-2312-41F9-BAE3-A5E24480BB0A}"/>
   </bookViews>
@@ -286,19 +286,19 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -311,6 +311,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0E1117"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,7 +344,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -356,16 +361,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
                 <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Midwestern</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0">
-                <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> union membership rates</a:t>
+              <a:t>Midwestern union membership rates</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -373,7 +375,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
                 <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>in steady decline since 1980s</a:t>
@@ -384,7 +389,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="800" i="1">
+              <a:rPr lang="en-US" sz="800" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1">
                     <a:lumMod val="65000"/>
@@ -392,53 +397,20 @@
                 </a:solidFill>
                 <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Data</a:t>
+              <a:t>Data: US Bureau of Labor Statitics</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="800" i="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="65000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>: </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="800" i="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="65000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>US</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="800" i="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="65000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> Bureau of Labor Statitics</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="800" i="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos SemiBold" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="1"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28909036370453689"/>
+          <c:y val="3.298583162733211E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -447,7 +419,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -475,9 +447,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.8753738222400482E-2"/>
-          <c:y val="3.2647730982696702E-2"/>
+          <c:y val="0.19130449457434984"/>
           <c:w val="0.90026193944255628"/>
-          <c:h val="0.81392952717345202"/>
+          <c:h val="0.655272702725745"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1276,6 +1248,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1313,10 +1286,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1345,7 +1315,11 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1369,10 +1343,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1387,7 +1358,9 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="0E1117"/>
+        </a:solidFill>
         <a:ln w="25400">
           <a:noFill/>
         </a:ln>
@@ -1411,10 +1384,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1431,7 +1401,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="0E1117"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
@@ -2020,13 +1990,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>129539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2380,93 +2350,93 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="O1" s="11" t="s">
+      <c r="M1" s="12"/>
+      <c r="O1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -2474,33 +2444,33 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="13"/>
+      <c r="O3" s="14"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="13"/>
+      <c r="Q3" s="14"/>
       <c r="R3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4465,6 +4435,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="S2:S3"/>
@@ -4474,12 +4450,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H1:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" location="Historical_UnionMembership_MI.xlsx.f.1" display="https://www.bls.gov/regions/midwest/data/unionmembershiphistorical_michigan_table.htm - Historical_UnionMembership_MI.xlsx.f.1" xr:uid="{9E56212A-B058-4C77-9E04-05D2889B9B0A}"/>
@@ -4497,8 +4467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74992980-F487-4567-894F-19E5C3701D25}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
